--- a/Input/Now_Health/benefits1.xlsx
+++ b/Input/Now_Health/benefits1.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AK$10</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AM$10</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="125">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -112,6 +112,12 @@
     <t xml:space="preserve">Dental Waiting Period</t>
   </si>
   <si>
+    <t xml:space="preserve">Dental 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental Waiting Period 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Additional Benefits</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
     <t xml:space="preserve">frequency</t>
   </si>
   <si>
+    <t xml:space="preserve">discounts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Advance</t>
   </si>
   <si>
@@ -211,7 +220,7 @@
     <t xml:space="preserve">Worldwide excluding USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Worldcare Comprehensive/ Worldcare Restricted</t>
+    <t xml:space="preserve">Worldcare Comprehensive</t>
   </si>
   <si>
     <t xml:space="preserve">As per reasonable and customary rates</t>
@@ -235,7 +244,7 @@
     <t xml:space="preserve">Covered in full with $</t>
   </si>
   <si>
-    <t xml:space="preserve">(More options available) Essential vaccinations as stipulated by MOH with $ co-pay</t>
+    <t xml:space="preserve">Essential vaccinations as stipulated by MOH with $ co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered in full with $ co-pay</t>
@@ -253,7 +262,14 @@
     <t xml:space="preserve">Covered up to  USD 69,000 for first 30 days Premature delivery and emergency medical treatment covered up to USD 100,000 for 30 days</t>
   </si>
   <si>
-    <t xml:space="preserve">No benefit (option available)</t>
+    <t xml:space="preserve">$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Routine dental- Covered up to USD 250 with 20% co-pay
+Complex dental- Covered up to USD 1,000 with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 months wait</t>
   </si>
   <si>
     <t xml:space="preserve">No benefit (Options available)</t>
@@ -289,6 +305,9 @@
     <t xml:space="preserve">Annually</t>
   </si>
   <si>
+    <t xml:space="preserve">10% - 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Advance Wellness Opt 1</t>
   </si>
   <si>
@@ -298,16 +317,12 @@
     <t xml:space="preserve">Covered up to USD 69,001</t>
   </si>
   <si>
+    <t xml:space="preserve"> USD 500 Combined limit with Wellness, Optical and Vaccinations (6 month wait)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Option 1: USD 500 Combined limit with Wellness, Optical and Vaccinations (6 month wait)</t>
   </si>
   <si>
-    <t xml:space="preserve">Routine dental- Covered up to USD 1,000 with 20% co-pay
-Complex dental- Covered up to USD 2,000 with 20% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 months wait</t>
-  </si>
-  <si>
     <t xml:space="preserve">USD 15 per visit/ USD 15</t>
   </si>
   <si>
@@ -317,7 +332,13 @@
     <t xml:space="preserve">Monthly</t>
   </si>
   <si>
+    <t xml:space="preserve">15% - 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Advance Wellness Opt 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD 500 Combined limit with Wellness, Optical and Vaccinations (6 month wait)</t>
   </si>
   <si>
     <t xml:space="preserve">Option 2: USD 500 Combined limit with Wellness, Optical and Vaccinations (6 month wait)</t>
@@ -389,7 +410,7 @@
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -424,6 +445,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -433,19 +460,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -503,20 +523,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -544,10 +564,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ10"/>
+  <dimension ref="A1:BM10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BJ1" activeCellId="0" sqref="BJ1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -573,7 +593,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="36.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="46.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="48.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="73.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="31.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="15.53"/>
@@ -581,41 +601,42 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="72.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="52.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="54.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="26.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="57.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="24.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="22.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="24.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="30.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="25.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="17.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="53.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="35.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="41.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="26.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="29.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="28.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="30.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="93.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="23.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="34.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="55.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="14.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="23.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="21.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="61" style="0" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="55.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="59.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="59.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="57.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="24.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="22.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="24.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="30.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="25.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="17.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="53.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="35.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="41.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="26.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="29.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="28.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="30.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="93.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="23.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="34.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="55.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="14.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="59" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="21.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="63" style="0" width="11.64"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -703,13 +724,13 @@
       <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="4" t="s">
@@ -721,22 +742,22 @@
       <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="AP1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="0" t="s">
         <v>40</v>
       </c>
       <c r="AR1" s="0" t="s">
@@ -745,10 +766,10 @@
       <c r="AS1" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="AT1" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="AU1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV1" s="0" t="s">
         <v>44</v>
       </c>
       <c r="AW1" s="0" t="s">
@@ -763,13 +784,13 @@
       <c r="AZ1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" s="0" t="s">
         <v>49</v>
       </c>
       <c r="BB1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" s="3" t="s">
         <v>51</v>
       </c>
       <c r="BD1" s="0" t="s">
@@ -781,1283 +802,1355 @@
       <c r="BF1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="0" t="s">
         <v>55</v>
       </c>
       <c r="BH1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="BI1" s="0" t="s">
+      <c r="BI1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="BJ1" s="0" t="s">
         <v>58</v>
+      </c>
+      <c r="BK1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="72.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ2" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN2" s="0" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="AP2" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ2" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AR2" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW2" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="AX2" s="0" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AY2" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AZ2" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BA2" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BB2" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BC2" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE2" s="7" t="n">
+        <v>88</v>
+      </c>
+      <c r="BD2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG2" s="9" t="n">
         <v>45017</v>
       </c>
-      <c r="BF2" s="8" t="n">
+      <c r="BH2" s="10" t="n">
         <v>45382</v>
       </c>
-      <c r="BG2" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ2" s="0" t="s">
-        <v>87</v>
+      <c r="BI2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM2" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="72.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y3" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX3" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW3" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX3" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="AY3" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BA3" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BB3" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BC3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="8"/>
-      <c r="BH3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BJ3" s="0" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="BD3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="10"/>
+      <c r="BJ3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BL3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM3" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y4" s="0" t="s">
+      <c r="AI4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX4" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ4" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN4" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP4" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ4" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR4" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX4" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="AY4" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AZ4" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BA4" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BB4" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BC4" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="8"/>
-      <c r="BH4" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="BD4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="10"/>
+      <c r="BJ4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI5" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ5" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX5" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC5" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE5" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF5" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG5" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH5" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI5" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ5" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM5" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN5" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW5" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="AX5" s="0" t="s">
-        <v>82</v>
-      </c>
       <c r="AY5" s="0" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="AZ5" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BA5" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BB5" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BC5" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH5" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="BD5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AA6" s="6"/>
       <c r="AB6" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC6" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG6" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH6" s="0" t="s">
-        <v>105</v>
+        <v>81</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="AJ6" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM6" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN6" s="0" t="s">
-        <v>79</v>
+        <v>112</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ6" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AR6" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW6" s="0" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="AS6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT6" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AY6" s="0" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="AZ6" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BA6" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BB6" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BC6" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH6" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="BD6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y7" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AA7" s="6"/>
       <c r="AB7" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AC7" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG7" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH7" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG7" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="AH7" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="AI7" s="0" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="AJ7" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM7" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN7" s="0" t="s">
-        <v>79</v>
+        <v>112</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO7" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="AP7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ7" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AR7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV7" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW7" s="0" t="s">
-        <v>106</v>
+        <v>85</v>
+      </c>
+      <c r="AS7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT7" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="AX7" s="0" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AY7" s="0" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="AZ7" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BA7" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BB7" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BC7" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="BD7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE7" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y8" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AA8" s="6"/>
       <c r="AB8" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AC8" s="0" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="AE8" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF8" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AG8" s="0" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AH8" s="0" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AI8" s="0" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="AJ8" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM8" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN8" s="0" t="s">
-        <v>79</v>
+        <v>121</v>
+      </c>
+      <c r="AK8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL8" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="AP8" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ8" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AR8" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW8" s="0" t="s">
-        <v>115</v>
+        <v>85</v>
+      </c>
+      <c r="AS8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT8" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="AX8" s="0" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AY8" s="0" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="AZ8" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BA8" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BB8" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BC8" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="BD8" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE8" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="V9" s="5"/>
       <c r="W9" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AA9" s="6"/>
       <c r="AB9" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AC9" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG9" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH9" s="0" t="s">
-        <v>114</v>
+        <v>81</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM9" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN9" s="0" t="s">
-        <v>79</v>
+        <v>121</v>
+      </c>
+      <c r="AK9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO9" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="AP9" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ9" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AR9" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW9" s="0" t="s">
-        <v>115</v>
+        <v>85</v>
+      </c>
+      <c r="AS9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT9" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="AX9" s="0" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AY9" s="0" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="AZ9" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BA9" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BB9" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BC9" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="BD9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE9" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>110</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y10" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AA10" s="6"/>
       <c r="AB10" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AC10" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG10" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH10" s="0" t="s">
-        <v>114</v>
+        <v>81</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="AI10" s="0" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="AJ10" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM10" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN10" s="0" t="s">
-        <v>79</v>
+        <v>121</v>
+      </c>
+      <c r="AK10" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO10" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="AP10" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ10" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AR10" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW10" s="0" t="s">
-        <v>115</v>
+        <v>85</v>
+      </c>
+      <c r="AS10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT10" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="AX10" s="0" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AY10" s="0" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="AZ10" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BA10" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BB10" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BC10" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="BD10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE10" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK10"/>
+  <autoFilter ref="A1:AM10"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
